--- a/文档/一证两户限制对外口径.xlsx
+++ b/文档/一证两户限制对外口径.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="我司对外口径" sheetId="1" r:id="rId1"/>
-    <sheet name="竞品调研" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="竞品调研" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -49,13 +49,19 @@
     <t>现在是只能进件2个商户了吗？</t>
   </si>
   <si>
-    <t>您好，根据银联相关规定，一个小微商户只能在同一家支付机构办理两台终端，如您因经营需要有办理多台终端的需求，可通过营业执照申请进件。</t>
-  </si>
-  <si>
-    <t>您好，根据银联相关规定，一个小微商户只能在同一家支付机构办理两台终端，如商户因经营需要有办理多台终端的需求，可引导其通过营业执照申请进件。</t>
+    <t>您好，根据相关规定，一个小微商户只能在同一家支付机构办理两台终端，如您因经营需要有办理多台终端的需求，可通过营业执照申请进件。</t>
+  </si>
+  <si>
+    <t>您好，根据相关规定，一个小微商户只能在同一家支付机构办理两台终端，如商户因经营需要有办理多台终端的需求，可引导其通过营业执照申请进件。</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>针对近两天新增商户48小时后报备失败话术：</t>
     </r>
     <r>
@@ -69,13 +75,19 @@
     </r>
   </si>
   <si>
-    <t>您好，根据银联相关规定，一个小微商户只能在同一家支付机构办理两台终端，后台核实您当前申请的终端数已超限，故已被关闭处理，如您因经营需要有办理多台终端的需求，可通过营业执照申请进件。</t>
-  </si>
-  <si>
-    <t>您好，根据银联相关规定，一个小微商户只能在同一家支付机构办理两台终端，后台核实该商户当前申请的终端数已超限，故已被关闭处理，如商户因经营需要有办理多台终端的需求，可通过营业执照申请进件。</t>
+    <t>您好，根据相关规定，一个小微商户只能在同一家支付机构办理两台终端，后台核实您当前申请的终端数已超限，故已被关闭处理，如您因经营需要有办理多台终端的需求，可通过营业执照申请进件。</t>
+  </si>
+  <si>
+    <t>您好，根据相关规定，一个小微商户只能在同一家支付机构办理两台终端，后台核实该商户当前申请的终端数已超限，故已被关闭处理，如商户因经营需要有办理多台终端的需求，可通过营业执照申请进件。</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>后续针对存量超出注册台数商户突然关闭话术：</t>
     </r>
     <r>
@@ -115,7 +127,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">一定要恢复其中一个（保留两个的情况下）原则上不与恢复
+      <t xml:space="preserve">一定要恢复其中一个（保留两个的情况下）原则上不恢复
 </t>
     </r>
     <r>
@@ -140,7 +152,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">一定要恢复其中一个（保留两个的情况下），原则上不与恢复
+      <t xml:space="preserve">一定要恢复其中一个（保留两个的情况下），原则上不恢复
 </t>
     </r>
     <r>
@@ -1280,7 +1292,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.875" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1348,7 +1360,7 @@
     </row>
     <row r="5" ht="114" spans="1:4">
       <c r="A5" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>11</v>
@@ -1360,9 +1372,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="128.25" spans="1:4">
+    <row r="6" ht="114" spans="1:4">
       <c r="A6" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>14</v>
@@ -1376,7 +1388,7 @@
     </row>
     <row r="7" ht="40" customHeight="1" spans="1:4">
       <c r="A7" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>17</v>
@@ -1390,7 +1402,7 @@
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:4">
       <c r="A8" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>19</v>
@@ -1404,7 +1416,7 @@
     </row>
     <row r="9" ht="40" customHeight="1" spans="1:4">
       <c r="A9" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>20</v>
@@ -1418,7 +1430,7 @@
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:4">
       <c r="A10" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>23</v>
@@ -1446,7 +1458,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
